--- a/new2.xlsx
+++ b/new2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\WhatsappBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\WhatsBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF9851D-4BA3-4490-AEC4-906256C546CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DF04F2-FCF4-45D1-A823-0D2E4FEB7B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="3030" windowWidth="11145" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="11145" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
     <t>Numbers</t>
   </si>
   <si>
-    <t>+91 90786 13527</t>
+    <t>Simran G</t>
   </si>
   <si>
-    <t>+91 77409 86942</t>
+    <t>Me Idea</t>
   </si>
 </sst>
 </file>
@@ -355,7 +355,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
